--- a/testFile.xlsx
+++ b/testFile.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>urls</t>
   </si>
@@ -47,14 +48,42 @@
     <t>http://www.royalsystel.com.ar</t>
   </si>
   <si>
+    <t>info@royalsystel.com.ar</t>
+  </si>
+  <si>
     <t>http://www.axa.com.ar/webaxa</t>
+  </si>
+  <si>
+    <t>info@axa.com.ar</t>
+  </si>
+  <si>
+    <t>sucursal-centro@axa.com.ar</t>
+  </si>
+  <si>
+    <t>serviciotecnico@axa.com.ar</t>
+  </si>
+  <si>
+    <t>https://www.derplast.com.ar/</t>
+  </si>
+  <si>
+    <t>info@derplast.com.ar</t>
+  </si>
+  <si>
+    <t>http://www.pastorutti.com/</t>
+  </si>
+  <si>
+    <t>https://www.easy.com.ar</t>
+  </si>
+  <si>
+    <t>infocl@easy.com.ar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,11 +119,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -376,52 +406,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7"/>
+    <hyperlink ref="A5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>